--- a/heart_cleveland_upload.xlsx
+++ b/heart_cleveland_upload.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiosaudeorgbr-my.sharepoint.com/personal/luis_lobato_fiosaude_org_br/Documents/01. BACKUP/GITHUB - ESPECIALIZAÇÃO PUC/MVP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis claudio\Dropbox\11. CURSO ESPECIALIZACAO\CIENCIA DE DADOS - PUCRJ\01. Análise Exploratória e Pré-Processamento de Dados\MVP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{DB61A4A8-78C3-43F9-B770-62AB12B01DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD6C03C0-E193-4E53-8C2E-C635876F6700}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4208A4-31F6-489C-B283-37FC24AC2B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{DD06B9D2-D3C4-4DF4-B60C-A70E8C5B224B}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{DD06B9D2-D3C4-4DF4-B60C-A70E8C5B224B}"/>
   </bookViews>
   <sheets>
     <sheet name="heart_cleveland_upload" sheetId="1" r:id="rId1"/>
     <sheet name="DESCRIÇÃO" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">heart_cleveland_upload!$C$1:$P$298</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -170,22 +173,6 @@
     <t>3.1</t>
   </si>
   <si>
-    <t>sexo</t>
-  </si>
-  <si>
-    <t>tipo de dor toraxica</t>
-  </si>
-  <si>
-    <t>colesterol sérico em mg/dl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(glicemia de jejum &gt; 120 mg/dl) 
-</t>
-  </si>
-  <si>
-    <t>resultados eletrocardiográficos em repouso</t>
-  </si>
-  <si>
     <t>(1 = masculino; 0 = feminino)</t>
   </si>
   <si>
@@ -194,34 +181,7 @@
  2: apresentando hipertrofia ventricular esquerda provável ou definitiva pelos critérios de Estes</t>
   </si>
   <si>
-    <t>frequência cardíaca máxima atingida</t>
-  </si>
-  <si>
-    <t>(1 = sim; 0 = não)</t>
-  </si>
-  <si>
-    <t>idade em anos</t>
-  </si>
-  <si>
-    <t>pressão arterial em repouso</t>
-  </si>
-  <si>
-    <t>(valores entre 130-140 é motivo de preocupação)</t>
-  </si>
-  <si>
-    <t>(acima de 200 é motivo de preocupação)</t>
-  </si>
-  <si>
     <t>(1 = verdadeiro; 0 = falso) (&gt;126 mg/dll sinais de diabetes)</t>
-  </si>
-  <si>
-    <t>dor induzida pelo exercício</t>
-  </si>
-  <si>
-    <t>depressão induzida pelo exercicio (observa o stress do coração durante o exercicio)</t>
-  </si>
-  <si>
-    <t>a inclinação do pico do segmento do exercício</t>
   </si>
   <si>
     <t>0: ascendente
@@ -229,25 +189,10 @@
 2: descida</t>
   </si>
   <si>
-    <t>número de vasos principais (0-3) coloridos por fluorosopia</t>
-  </si>
-  <si>
-    <t>vaso colorido significa que o médico pode ver o sangue passando</t>
-  </si>
-  <si>
-    <t>resultado do estresse de tálio</t>
-  </si>
-  <si>
     <t xml:space="preserve">0: normal
 1: defeito corrigido
 2: defeito reversível
 </t>
-  </si>
-  <si>
-    <t>condição</t>
-  </si>
-  <si>
-    <t>0 = sem doença,  1 = doença</t>
   </si>
   <si>
     <t>https://www.kaggle.com/datasets/cherngs/heart-disease-cleveland-uci</t>
@@ -275,6 +220,66 @@
   </si>
   <si>
     <t>BASE</t>
+  </si>
+  <si>
+    <t>Idade em anos</t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>Tipo de dor toraxica</t>
+  </si>
+  <si>
+    <t>Pressão arterial em repouso</t>
+  </si>
+  <si>
+    <t>Colesterol sérico em mg/dl</t>
+  </si>
+  <si>
+    <t>valores entre 130-140 é motivo de preocupação</t>
+  </si>
+  <si>
+    <t>acima de 200 é motivo de preocupação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glicemia de jejum &gt; 120 mg/dl
+</t>
+  </si>
+  <si>
+    <t>Resultados eletrocardiográficos em repouso</t>
+  </si>
+  <si>
+    <t>Frequência cardíaca máxima atingida</t>
+  </si>
+  <si>
+    <t>Dor induzida pelo exercício físico</t>
+  </si>
+  <si>
+    <t>1 = sim
+ 0 = não</t>
+  </si>
+  <si>
+    <t>Depressão induzida pelo exercicio físico (observa o stress do coração durante o exercicio)</t>
+  </si>
+  <si>
+    <t>Inclinação do pico do segmento do exercício</t>
+  </si>
+  <si>
+    <t>Número de vasos principais (0-3) coloridos por fluorosopia</t>
+  </si>
+  <si>
+    <t>Vaso colorido significa que o médico pode ver o sangue passando</t>
+  </si>
+  <si>
+    <t>Resultado do estresse de tálio</t>
+  </si>
+  <si>
+    <t>Condição Cardíaca</t>
+  </si>
+  <si>
+    <t>0 = sem doença
+1 = doença</t>
   </si>
 </sst>
 </file>
@@ -869,10 +874,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -1190,18 +1191,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FAE0F54-6A7B-452F-BF43-4122AECCB231}">
+  <sheetPr filterMode="1"/>
   <dimension ref="C1:P298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="16" width="9.42578125" style="4" customWidth="1"/>
+    <col min="3" max="16" width="9.3984375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1245,7 +1247,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C2" s="3">
         <v>69</v>
       </c>
@@ -1289,7 +1291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C3" s="3">
         <v>69</v>
       </c>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C4" s="3">
         <v>66</v>
       </c>
@@ -1377,7 +1379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C5" s="3">
         <v>65</v>
       </c>
@@ -1421,7 +1423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C6" s="3">
         <v>64</v>
       </c>
@@ -1465,7 +1467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C7" s="3">
         <v>64</v>
       </c>
@@ -1509,7 +1511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C8" s="3">
         <v>63</v>
       </c>
@@ -1553,7 +1555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C9" s="3">
         <v>61</v>
       </c>
@@ -1597,7 +1599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C10" s="3">
         <v>60</v>
       </c>
@@ -1641,7 +1643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C11" s="3">
         <v>59</v>
       </c>
@@ -1685,7 +1687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C12" s="3">
         <v>59</v>
       </c>
@@ -1729,7 +1731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C13" s="3">
         <v>59</v>
       </c>
@@ -1773,7 +1775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C14" s="3">
         <v>59</v>
       </c>
@@ -1817,7 +1819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C15" s="3">
         <v>58</v>
       </c>
@@ -1861,7 +1863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C16" s="3">
         <v>56</v>
       </c>
@@ -1905,7 +1907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C17" s="3">
         <v>52</v>
       </c>
@@ -1949,7 +1951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C18" s="3">
         <v>52</v>
       </c>
@@ -1993,7 +1995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C19" s="3">
         <v>51</v>
       </c>
@@ -2037,7 +2039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C20" s="3">
         <v>45</v>
       </c>
@@ -2081,7 +2083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C21" s="3">
         <v>42</v>
       </c>
@@ -2125,7 +2127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C22" s="3">
         <v>40</v>
       </c>
@@ -2169,7 +2171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C23" s="3">
         <v>38</v>
       </c>
@@ -2213,7 +2215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C24" s="3">
         <v>34</v>
       </c>
@@ -2257,7 +2259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C25" s="3">
         <v>74</v>
       </c>
@@ -2301,7 +2303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C26" s="3">
         <v>71</v>
       </c>
@@ -2345,7 +2347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C27" s="3">
         <v>70</v>
       </c>
@@ -2389,7 +2391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C28" s="3">
         <v>66</v>
       </c>
@@ -2433,7 +2435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C29" s="3">
         <v>63</v>
       </c>
@@ -2477,7 +2479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C30" s="3">
         <v>62</v>
       </c>
@@ -2521,7 +2523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C31" s="3">
         <v>62</v>
       </c>
@@ -2565,7 +2567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C32" s="3">
         <v>59</v>
       </c>
@@ -2609,7 +2611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C33" s="3">
         <v>58</v>
       </c>
@@ -2653,7 +2655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C34" s="3">
         <v>58</v>
       </c>
@@ -2697,7 +2699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C35" s="3">
         <v>57</v>
       </c>
@@ -2741,7 +2743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C36" s="3">
         <v>57</v>
       </c>
@@ -2785,7 +2787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C37" s="3">
         <v>57</v>
       </c>
@@ -2829,7 +2831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C38" s="3">
         <v>56</v>
       </c>
@@ -2873,7 +2875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C39" s="3">
         <v>56</v>
       </c>
@@ -2917,7 +2919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C40" s="3">
         <v>56</v>
       </c>
@@ -2961,7 +2963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C41" s="3">
         <v>56</v>
       </c>
@@ -3005,7 +3007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C42" s="3">
         <v>55</v>
       </c>
@@ -3049,7 +3051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C43" s="3">
         <v>55</v>
       </c>
@@ -3093,7 +3095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C44" s="3">
         <v>55</v>
       </c>
@@ -3137,7 +3139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C45" s="3">
         <v>54</v>
       </c>
@@ -3181,7 +3183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C46" s="3">
         <v>54</v>
       </c>
@@ -3225,7 +3227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C47" s="3">
         <v>54</v>
       </c>
@@ -3269,7 +3271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C48" s="3">
         <v>52</v>
       </c>
@@ -3313,7 +3315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C49" s="3">
         <v>52</v>
       </c>
@@ -3357,7 +3359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C50" s="3">
         <v>52</v>
       </c>
@@ -3401,7 +3403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C51" s="3">
         <v>50</v>
       </c>
@@ -3445,7 +3447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C52" s="3">
         <v>49</v>
       </c>
@@ -3489,7 +3491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C53" s="3">
         <v>49</v>
       </c>
@@ -3533,7 +3535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C54" s="3">
         <v>48</v>
       </c>
@@ -3577,7 +3579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C55" s="3">
         <v>48</v>
       </c>
@@ -3621,7 +3623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C56" s="3">
         <v>46</v>
       </c>
@@ -3665,7 +3667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C57" s="3">
         <v>46</v>
       </c>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C58" s="3">
         <v>45</v>
       </c>
@@ -3753,7 +3755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C59" s="3">
         <v>45</v>
       </c>
@@ -3797,7 +3799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C60" s="3">
         <v>45</v>
       </c>
@@ -3841,7 +3843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C61" s="3">
         <v>44</v>
       </c>
@@ -3885,7 +3887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C62" s="3">
         <v>44</v>
       </c>
@@ -3929,7 +3931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C63" s="3">
         <v>44</v>
       </c>
@@ -3973,7 +3975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C64" s="3">
         <v>42</v>
       </c>
@@ -4017,7 +4019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C65" s="3">
         <v>41</v>
       </c>
@@ -4061,7 +4063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C66" s="3">
         <v>41</v>
       </c>
@@ -4105,7 +4107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C67" s="3">
         <v>41</v>
       </c>
@@ -4149,7 +4151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C68" s="3">
         <v>41</v>
       </c>
@@ -4193,7 +4195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C69" s="3">
         <v>41</v>
       </c>
@@ -4237,7 +4239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C70" s="3">
         <v>41</v>
       </c>
@@ -4281,7 +4283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C71" s="3">
         <v>35</v>
       </c>
@@ -4325,7 +4327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C72" s="3">
         <v>34</v>
       </c>
@@ -4369,7 +4371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C73" s="3">
         <v>29</v>
       </c>
@@ -4413,7 +4415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C74" s="3">
         <v>76</v>
       </c>
@@ -4457,7 +4459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C75" s="3">
         <v>71</v>
       </c>
@@ -4501,7 +4503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C76" s="3">
         <v>70</v>
       </c>
@@ -4545,7 +4547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C77" s="3">
         <v>69</v>
       </c>
@@ -4589,7 +4591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C78" s="3">
         <v>68</v>
       </c>
@@ -4633,7 +4635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C79" s="3">
         <v>68</v>
       </c>
@@ -4677,7 +4679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C80" s="3">
         <v>68</v>
       </c>
@@ -4721,7 +4723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C81" s="3">
         <v>67</v>
       </c>
@@ -4765,7 +4767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C82" s="3">
         <v>67</v>
       </c>
@@ -4809,7 +4811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C83" s="3">
         <v>67</v>
       </c>
@@ -4853,7 +4855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C84" s="3">
         <v>66</v>
       </c>
@@ -4897,7 +4899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C85" s="3">
         <v>65</v>
       </c>
@@ -4941,7 +4943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C86" s="3">
         <v>65</v>
       </c>
@@ -4985,7 +4987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C87" s="3">
         <v>65</v>
       </c>
@@ -5029,7 +5031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C88" s="3">
         <v>64</v>
       </c>
@@ -5073,7 +5075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C89" s="3">
         <v>64</v>
       </c>
@@ -5117,7 +5119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C90" s="3">
         <v>64</v>
       </c>
@@ -5161,7 +5163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C91" s="3">
         <v>63</v>
       </c>
@@ -5205,7 +5207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C92" s="3">
         <v>62</v>
       </c>
@@ -5249,7 +5251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C93" s="3">
         <v>62</v>
       </c>
@@ -5293,7 +5295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C94" s="3">
         <v>61</v>
       </c>
@@ -5337,7 +5339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C95" s="3">
         <v>60</v>
       </c>
@@ -5381,7 +5383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C96" s="3">
         <v>60</v>
       </c>
@@ -5425,7 +5427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C97" s="3">
         <v>60</v>
       </c>
@@ -5469,7 +5471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C98" s="3">
         <v>59</v>
       </c>
@@ -5513,7 +5515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C99" s="3">
         <v>59</v>
       </c>
@@ -5557,7 +5559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C100" s="3">
         <v>58</v>
       </c>
@@ -5601,7 +5603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C101" s="3">
         <v>58</v>
       </c>
@@ -5645,7 +5647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C102" s="3">
         <v>58</v>
       </c>
@@ -5689,7 +5691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C103" s="3">
         <v>58</v>
       </c>
@@ -5733,7 +5735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C104" s="3">
         <v>58</v>
       </c>
@@ -5777,7 +5779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C105" s="3">
         <v>57</v>
       </c>
@@ -5821,7 +5823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C106" s="3">
         <v>57</v>
       </c>
@@ -5865,7 +5867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C107" s="3">
         <v>57</v>
       </c>
@@ -5909,7 +5911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C108" s="3">
         <v>56</v>
       </c>
@@ -5953,7 +5955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C109" s="3">
         <v>54</v>
       </c>
@@ -5997,7 +5999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C110" s="3">
         <v>54</v>
       </c>
@@ -6041,7 +6043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C111" s="3">
         <v>54</v>
       </c>
@@ -6085,7 +6087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C112" s="3">
         <v>54</v>
       </c>
@@ -6129,7 +6131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C113" s="3">
         <v>54</v>
       </c>
@@ -6173,7 +6175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C114" s="3">
         <v>54</v>
       </c>
@@ -6217,7 +6219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C115" s="3">
         <v>54</v>
       </c>
@@ -6261,7 +6263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C116" s="3">
         <v>53</v>
       </c>
@@ -6305,7 +6307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C117" s="3">
         <v>53</v>
       </c>
@@ -6349,7 +6351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C118" s="3">
         <v>52</v>
       </c>
@@ -6393,7 +6395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C119" s="3">
         <v>52</v>
       </c>
@@ -6437,7 +6439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C120" s="3">
         <v>51</v>
       </c>
@@ -6481,7 +6483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C121" s="3">
         <v>51</v>
       </c>
@@ -6525,7 +6527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C122" s="3">
         <v>51</v>
       </c>
@@ -6569,7 +6571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C123" s="3">
         <v>51</v>
       </c>
@@ -6613,7 +6615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C124" s="3">
         <v>51</v>
       </c>
@@ -6657,7 +6659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C125" s="3">
         <v>51</v>
       </c>
@@ -6701,7 +6703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C126" s="3">
         <v>51</v>
       </c>
@@ -6745,7 +6747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C127" s="3">
         <v>50</v>
       </c>
@@ -6789,7 +6791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C128" s="3">
         <v>50</v>
       </c>
@@ -6833,7 +6835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C129" s="3">
         <v>50</v>
       </c>
@@ -6877,7 +6879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C130" s="3">
         <v>49</v>
       </c>
@@ -6921,7 +6923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C131" s="3">
         <v>49</v>
       </c>
@@ -6965,7 +6967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C132" s="3">
         <v>48</v>
       </c>
@@ -7009,7 +7011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C133" s="3">
         <v>48</v>
       </c>
@@ -7053,7 +7055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C134" s="3">
         <v>47</v>
       </c>
@@ -7097,7 +7099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C135" s="3">
         <v>47</v>
       </c>
@@ -7141,7 +7143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C136" s="3">
         <v>47</v>
       </c>
@@ -7185,7 +7187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C137" s="3">
         <v>46</v>
       </c>
@@ -7229,7 +7231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C138" s="3">
         <v>46</v>
       </c>
@@ -7273,7 +7275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C139" s="3">
         <v>44</v>
       </c>
@@ -7317,7 +7319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C140" s="3">
         <v>44</v>
       </c>
@@ -7361,7 +7363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C141" s="3">
         <v>44</v>
       </c>
@@ -7405,7 +7407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C142" s="3">
         <v>44</v>
       </c>
@@ -7449,7 +7451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C143" s="3">
         <v>44</v>
       </c>
@@ -7493,7 +7495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C144" s="3">
         <v>43</v>
       </c>
@@ -7537,7 +7539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C145" s="3">
         <v>43</v>
       </c>
@@ -7581,7 +7583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C146" s="3">
         <v>42</v>
       </c>
@@ -7625,7 +7627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C147" s="3">
         <v>42</v>
       </c>
@@ -7669,7 +7671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C148" s="3">
         <v>42</v>
       </c>
@@ -7713,7 +7715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C149" s="3">
         <v>41</v>
       </c>
@@ -7757,7 +7759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C150" s="3">
         <v>41</v>
       </c>
@@ -7801,7 +7803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C151" s="3">
         <v>41</v>
       </c>
@@ -7845,7 +7847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C152" s="3">
         <v>39</v>
       </c>
@@ -7889,7 +7891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C153" s="3">
         <v>39</v>
       </c>
@@ -7933,7 +7935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C154" s="3">
         <v>39</v>
       </c>
@@ -7977,7 +7979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C155" s="3">
         <v>37</v>
       </c>
@@ -8021,7 +8023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C156" s="3">
         <v>37</v>
       </c>
@@ -8065,7 +8067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C157" s="3">
         <v>77</v>
       </c>
@@ -8109,7 +8111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C158" s="3">
         <v>71</v>
       </c>
@@ -8153,7 +8155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C159" s="3">
         <v>70</v>
       </c>
@@ -8197,7 +8199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C160" s="3">
         <v>70</v>
       </c>
@@ -8241,7 +8243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C161" s="3">
         <v>68</v>
       </c>
@@ -8285,7 +8287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C162" s="3">
         <v>67</v>
       </c>
@@ -8329,7 +8331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C163" s="3">
         <v>67</v>
       </c>
@@ -8373,7 +8375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C164" s="3">
         <v>67</v>
       </c>
@@ -8417,7 +8419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C165" s="3">
         <v>67</v>
       </c>
@@ -8461,7 +8463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C166" s="3">
         <v>67</v>
       </c>
@@ -8505,7 +8507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C167" s="3">
         <v>67</v>
       </c>
@@ -8549,7 +8551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C168" s="3">
         <v>66</v>
       </c>
@@ -8593,7 +8595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C169" s="3">
         <v>66</v>
       </c>
@@ -8637,7 +8639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C170" s="3">
         <v>66</v>
       </c>
@@ -8681,7 +8683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C171" s="3">
         <v>66</v>
       </c>
@@ -8725,7 +8727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C172" s="3">
         <v>65</v>
       </c>
@@ -8769,7 +8771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C173" s="3">
         <v>65</v>
       </c>
@@ -8813,7 +8815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C174" s="3">
         <v>65</v>
       </c>
@@ -8857,7 +8859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C175" s="3">
         <v>65</v>
       </c>
@@ -8901,7 +8903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C176" s="3">
         <v>64</v>
       </c>
@@ -8945,7 +8947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C177" s="3">
         <v>64</v>
       </c>
@@ -8989,7 +8991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C178" s="3">
         <v>64</v>
       </c>
@@ -9033,7 +9035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C179" s="3">
         <v>64</v>
       </c>
@@ -9077,7 +9079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C180" s="3">
         <v>64</v>
       </c>
@@ -9121,7 +9123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C181" s="3">
         <v>63</v>
       </c>
@@ -9165,7 +9167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C182" s="3">
         <v>63</v>
       </c>
@@ -9209,7 +9211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C183" s="3">
         <v>63</v>
       </c>
@@ -9253,7 +9255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C184" s="3">
         <v>63</v>
       </c>
@@ -9297,7 +9299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C185" s="3">
         <v>63</v>
       </c>
@@ -9341,7 +9343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C186" s="3">
         <v>63</v>
       </c>
@@ -9385,7 +9387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C187" s="3">
         <v>62</v>
       </c>
@@ -9429,7 +9431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C188" s="3">
         <v>62</v>
       </c>
@@ -9473,7 +9475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C189" s="3">
         <v>62</v>
       </c>
@@ -9517,7 +9519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C190" s="3">
         <v>62</v>
       </c>
@@ -9561,7 +9563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C191" s="3">
         <v>62</v>
       </c>
@@ -9605,7 +9607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C192" s="3">
         <v>62</v>
       </c>
@@ -9649,7 +9651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C193" s="3">
         <v>62</v>
       </c>
@@ -9693,7 +9695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C194" s="3">
         <v>61</v>
       </c>
@@ -9737,7 +9739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C195" s="3">
         <v>61</v>
       </c>
@@ -9781,7 +9783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C196" s="3">
         <v>61</v>
       </c>
@@ -9825,7 +9827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C197" s="3">
         <v>61</v>
       </c>
@@ -9869,7 +9871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C198" s="3">
         <v>61</v>
       </c>
@@ -9913,7 +9915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C199" s="3">
         <v>61</v>
       </c>
@@ -9957,7 +9959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C200" s="3">
         <v>60</v>
       </c>
@@ -10001,7 +10003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C201" s="3">
         <v>60</v>
       </c>
@@ -10045,7 +10047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C202" s="3">
         <v>60</v>
       </c>
@@ -10089,7 +10091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C203" s="3">
         <v>60</v>
       </c>
@@ -10133,7 +10135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C204" s="3">
         <v>60</v>
       </c>
@@ -10177,7 +10179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C205" s="3">
         <v>60</v>
       </c>
@@ -10221,7 +10223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C206" s="3">
         <v>60</v>
       </c>
@@ -10265,7 +10267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C207" s="3">
         <v>60</v>
       </c>
@@ -10309,7 +10311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C208" s="3">
         <v>59</v>
       </c>
@@ -10353,7 +10355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C209" s="3">
         <v>59</v>
       </c>
@@ -10397,7 +10399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C210" s="3">
         <v>59</v>
       </c>
@@ -10441,7 +10443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C211" s="3">
         <v>59</v>
       </c>
@@ -10485,7 +10487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C212" s="3">
         <v>59</v>
       </c>
@@ -10529,7 +10531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C213" s="3">
         <v>59</v>
       </c>
@@ -10573,7 +10575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C214" s="3">
         <v>59</v>
       </c>
@@ -10617,7 +10619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C215" s="3">
         <v>58</v>
       </c>
@@ -10661,7 +10663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C216" s="3">
         <v>58</v>
       </c>
@@ -10705,7 +10707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C217" s="3">
         <v>58</v>
       </c>
@@ -10749,7 +10751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C218" s="3">
         <v>58</v>
       </c>
@@ -10793,7 +10795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C219" s="3">
         <v>58</v>
       </c>
@@ -10837,7 +10839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C220" s="3">
         <v>58</v>
       </c>
@@ -10881,7 +10883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C221" s="3">
         <v>58</v>
       </c>
@@ -10925,7 +10927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C222" s="3">
         <v>58</v>
       </c>
@@ -10969,7 +10971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C223" s="3">
         <v>58</v>
       </c>
@@ -11013,7 +11015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C224" s="3">
         <v>58</v>
       </c>
@@ -11057,7 +11059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C225" s="3">
         <v>57</v>
       </c>
@@ -11101,7 +11103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C226" s="3">
         <v>57</v>
       </c>
@@ -11145,7 +11147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C227" s="3">
         <v>57</v>
       </c>
@@ -11189,7 +11191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C228" s="3">
         <v>57</v>
       </c>
@@ -11233,7 +11235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C229" s="3">
         <v>57</v>
       </c>
@@ -11277,7 +11279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C230" s="3">
         <v>57</v>
       </c>
@@ -11321,7 +11323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C231" s="3">
         <v>57</v>
       </c>
@@ -11365,7 +11367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C232" s="3">
         <v>57</v>
       </c>
@@ -11409,7 +11411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C233" s="3">
         <v>57</v>
       </c>
@@ -11453,7 +11455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C234" s="3">
         <v>57</v>
       </c>
@@ -11497,7 +11499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C235" s="3">
         <v>57</v>
       </c>
@@ -11541,7 +11543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C236" s="3">
         <v>56</v>
       </c>
@@ -11585,7 +11587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C237" s="3">
         <v>56</v>
       </c>
@@ -11629,7 +11631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C238" s="3">
         <v>56</v>
       </c>
@@ -11673,7 +11675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C239" s="3">
         <v>56</v>
       </c>
@@ -11717,7 +11719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C240" s="3">
         <v>56</v>
       </c>
@@ -11761,7 +11763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C241" s="3">
         <v>55</v>
       </c>
@@ -11805,7 +11807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C242" s="3">
         <v>55</v>
       </c>
@@ -11849,7 +11851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C243" s="3">
         <v>55</v>
       </c>
@@ -11893,7 +11895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C244" s="3">
         <v>55</v>
       </c>
@@ -11937,7 +11939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C245" s="3">
         <v>55</v>
       </c>
@@ -11981,7 +11983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C246" s="3">
         <v>54</v>
       </c>
@@ -12025,7 +12027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C247" s="3">
         <v>54</v>
       </c>
@@ -12069,7 +12071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C248" s="3">
         <v>54</v>
       </c>
@@ -12113,7 +12115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C249" s="3">
         <v>54</v>
       </c>
@@ -12157,7 +12159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C250" s="3">
         <v>54</v>
       </c>
@@ -12201,7 +12203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C251" s="3">
         <v>54</v>
       </c>
@@ -12245,7 +12247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C252" s="3">
         <v>53</v>
       </c>
@@ -12289,7 +12291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C253" s="3">
         <v>53</v>
       </c>
@@ -12333,7 +12335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C254" s="3">
         <v>53</v>
       </c>
@@ -12377,7 +12379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C255" s="3">
         <v>53</v>
       </c>
@@ -12421,7 +12423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C256" s="3">
         <v>53</v>
       </c>
@@ -12465,7 +12467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C257" s="3">
         <v>52</v>
       </c>
@@ -12509,7 +12511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C258" s="3">
         <v>52</v>
       </c>
@@ -12553,7 +12555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C259" s="3">
         <v>52</v>
       </c>
@@ -12597,7 +12599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C260" s="3">
         <v>52</v>
       </c>
@@ -12641,7 +12643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C261" s="3">
         <v>51</v>
       </c>
@@ -12685,7 +12687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C262" s="3">
         <v>51</v>
       </c>
@@ -12729,7 +12731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C263" s="3">
         <v>51</v>
       </c>
@@ -12773,7 +12775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C264" s="3">
         <v>51</v>
       </c>
@@ -12817,7 +12819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C265" s="3">
         <v>50</v>
       </c>
@@ -12861,7 +12863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C266" s="3">
         <v>50</v>
       </c>
@@ -12905,7 +12907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C267" s="3">
         <v>50</v>
       </c>
@@ -12949,7 +12951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C268" s="3">
         <v>49</v>
       </c>
@@ -12993,7 +12995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C269" s="3">
         <v>48</v>
       </c>
@@ -13037,7 +13039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C270" s="3">
         <v>48</v>
       </c>
@@ -13081,7 +13083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C271" s="3">
         <v>48</v>
       </c>
@@ -13125,7 +13127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C272" s="3">
         <v>47</v>
       </c>
@@ -13169,7 +13171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C273" s="3">
         <v>47</v>
       </c>
@@ -13213,7 +13215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C274" s="3">
         <v>46</v>
       </c>
@@ -13257,7 +13259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C275" s="3">
         <v>46</v>
       </c>
@@ -13301,7 +13303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C276" s="3">
         <v>46</v>
       </c>
@@ -13345,7 +13347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C277" s="3">
         <v>45</v>
       </c>
@@ -13389,7 +13391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C278" s="3">
         <v>45</v>
       </c>
@@ -13433,7 +13435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C279" s="3">
         <v>45</v>
       </c>
@@ -13477,7 +13479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C280" s="3">
         <v>45</v>
       </c>
@@ -13521,7 +13523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C281" s="3">
         <v>44</v>
       </c>
@@ -13565,7 +13567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C282" s="3">
         <v>44</v>
       </c>
@@ -13609,7 +13611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C283" s="3">
         <v>44</v>
       </c>
@@ -13653,7 +13655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C284" s="3">
         <v>43</v>
       </c>
@@ -13697,7 +13699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C285" s="3">
         <v>43</v>
       </c>
@@ -13741,7 +13743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C286" s="3">
         <v>43</v>
       </c>
@@ -13785,7 +13787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C287" s="3">
         <v>43</v>
       </c>
@@ -13829,7 +13831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C288" s="3">
         <v>43</v>
       </c>
@@ -13873,7 +13875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C289" s="3">
         <v>42</v>
       </c>
@@ -13917,7 +13919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C290" s="3">
         <v>42</v>
       </c>
@@ -13961,7 +13963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C291" s="3">
         <v>42</v>
       </c>
@@ -14005,7 +14007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C292" s="3">
         <v>41</v>
       </c>
@@ -14049,7 +14051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C293" s="3">
         <v>40</v>
       </c>
@@ -14093,7 +14095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C294" s="3">
         <v>40</v>
       </c>
@@ -14137,7 +14139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C295" s="3">
         <v>39</v>
       </c>
@@ -14181,7 +14183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C296" s="3">
         <v>35</v>
       </c>
@@ -14225,7 +14227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C297" s="3">
         <v>35</v>
       </c>
@@ -14269,7 +14271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
       <c r="C298" s="3">
         <v>35</v>
       </c>
@@ -14314,6 +14316,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="C1:P298" xr:uid="{4FAE0F54-6A7B-452F-BF43-4122AECCB231}">
+    <filterColumn colId="13">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -14323,193 +14332,193 @@
   <dimension ref="B1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="70.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" customWidth="1"/>
+    <col min="3" max="3" width="70.1328125" customWidth="1"/>
+    <col min="4" max="4" width="43.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B1" s="6" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:4" s="2" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" s="2" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" s="2" customFormat="1" ht="57" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/heart_cleveland_upload.xlsx
+++ b/heart_cleveland_upload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis claudio\Dropbox\11. CURSO ESPECIALIZACAO\CIENCIA DE DADOS - PUCRJ\01. Análise Exploratória e Pré-Processamento de Dados\MVP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4208A4-31F6-489C-B283-37FC24AC2B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF70151C-C650-4756-9E91-F88722E0F9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{DD06B9D2-D3C4-4DF4-B60C-A70E8C5B224B}"/>
   </bookViews>
@@ -260,12 +260,6 @@
  0 = não</t>
   </si>
   <si>
-    <t>Depressão induzida pelo exercicio físico (observa o stress do coração durante o exercicio)</t>
-  </si>
-  <si>
-    <t>Inclinação do pico do segmento do exercício</t>
-  </si>
-  <si>
     <t>Número de vasos principais (0-3) coloridos por fluorosopia</t>
   </si>
   <si>
@@ -280,6 +274,12 @@
   <si>
     <t>0 = sem doença
 1 = doença</t>
+  </si>
+  <si>
+    <t>Depressão induzida pelo exercicio físico (observa o stress do coração durante o exercicio físico)</t>
+  </si>
+  <si>
+    <t>Inclinação do pico do segmento do exercício físico</t>
   </si>
 </sst>
 </file>
@@ -14331,8 +14331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{615EDDBE-34A1-471A-8986-1FE822B01926}">
   <dimension ref="B1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14456,7 +14456,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>60</v>
@@ -14467,7 +14467,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>52</v>
@@ -14478,10 +14478,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="2:4" s="2" customFormat="1" ht="57" x14ac:dyDescent="0.45">
@@ -14489,7 +14489,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>53</v>
@@ -14500,10 +14500,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.45">

--- a/heart_cleveland_upload.xlsx
+++ b/heart_cleveland_upload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis claudio\Dropbox\11. CURSO ESPECIALIZACAO\CIENCIA DE DADOS - PUCRJ\01. Análise Exploratória e Pré-Processamento de Dados\MVP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF70151C-C650-4756-9E91-F88722E0F9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9687053-DCF4-4713-9494-5B1DC00449A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{DD06B9D2-D3C4-4DF4-B60C-A70E8C5B224B}"/>
   </bookViews>
@@ -231,26 +231,13 @@
     <t>Tipo de dor toraxica</t>
   </si>
   <si>
-    <t>Pressão arterial em repouso</t>
-  </si>
-  <si>
-    <t>Colesterol sérico em mg/dl</t>
-  </si>
-  <si>
     <t>valores entre 130-140 é motivo de preocupação</t>
   </si>
   <si>
     <t>acima de 200 é motivo de preocupação</t>
   </si>
   <si>
-    <t xml:space="preserve">Glicemia de jejum &gt; 120 mg/dl
-</t>
-  </si>
-  <si>
     <t>Resultados eletrocardiográficos em repouso</t>
-  </si>
-  <si>
-    <t>Frequência cardíaca máxima atingida</t>
   </si>
   <si>
     <t>Dor induzida pelo exercício físico</t>
@@ -280,6 +267,19 @@
   </si>
   <si>
     <t>Inclinação do pico do segmento do exercício físico</t>
+  </si>
+  <si>
+    <t>Colesterol total em mg/dl</t>
+  </si>
+  <si>
+    <t>Pressão arterial em repouso em bps</t>
+  </si>
+  <si>
+    <t>Frequência cardíaca máxima atingida em bps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glicemia em jejum &gt; 120 mg/dl
+</t>
   </si>
 </sst>
 </file>
@@ -14331,8 +14331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{615EDDBE-34A1-471A-8986-1FE822B01926}">
   <dimension ref="B1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14390,10 +14390,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="6" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -14401,10 +14401,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="7" spans="2:4" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
@@ -14412,7 +14412,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>51</v>
@@ -14423,7 +14423,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>50</v>
@@ -14434,7 +14434,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>60</v>
@@ -14445,10 +14445,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="2:4" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
@@ -14456,7 +14456,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>60</v>
@@ -14467,7 +14467,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>52</v>
@@ -14478,10 +14478,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="2:4" s="2" customFormat="1" ht="57" x14ac:dyDescent="0.45">
@@ -14489,7 +14489,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>53</v>
@@ -14500,10 +14500,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.45">

--- a/heart_cleveland_upload.xlsx
+++ b/heart_cleveland_upload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis claudio\Dropbox\11. CURSO ESPECIALIZACAO\CIENCIA DE DADOS - PUCRJ\01. Análise Exploratória e Pré-Processamento de Dados\MVP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiosaudeorgbr-my.sharepoint.com/personal/luis_lobato_fiosaude_org_br/Documents/01. BACKUP/GITHUB - ESPECIALIZAÇÃO PUC/PUC_MVP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9687053-DCF4-4713-9494-5B1DC00449A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{E9687053-DCF4-4713-9494-5B1DC00449A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9C053FD-D692-4786-A287-0401DDFA6FBA}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{DD06B9D2-D3C4-4DF4-B60C-A70E8C5B224B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{DD06B9D2-D3C4-4DF4-B60C-A70E8C5B224B}"/>
   </bookViews>
   <sheets>
     <sheet name="heart_cleveland_upload" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">heart_cleveland_upload!$C$1:$P$298</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">DESCRIÇÃO!$B$1:$D$15</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -1198,12 +1199,12 @@
       <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="16" width="9.3984375" style="4" customWidth="1"/>
+    <col min="3" max="16" width="9.42578125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="1" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1247,7 +1248,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="2" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C2" s="3">
         <v>69</v>
       </c>
@@ -1291,7 +1292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C3" s="3">
         <v>69</v>
       </c>
@@ -1335,7 +1336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C4" s="3">
         <v>66</v>
       </c>
@@ -1379,7 +1380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C5" s="3">
         <v>65</v>
       </c>
@@ -1423,7 +1424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C6" s="3">
         <v>64</v>
       </c>
@@ -1467,7 +1468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C7" s="3">
         <v>64</v>
       </c>
@@ -1511,7 +1512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C8" s="3">
         <v>63</v>
       </c>
@@ -1555,7 +1556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C9" s="3">
         <v>61</v>
       </c>
@@ -1599,7 +1600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C10" s="3">
         <v>60</v>
       </c>
@@ -1643,7 +1644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C11" s="3">
         <v>59</v>
       </c>
@@ -1687,7 +1688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C12" s="3">
         <v>59</v>
       </c>
@@ -1731,7 +1732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C13" s="3">
         <v>59</v>
       </c>
@@ -1775,7 +1776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C14" s="3">
         <v>59</v>
       </c>
@@ -1819,7 +1820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C15" s="3">
         <v>58</v>
       </c>
@@ -1863,7 +1864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C16" s="3">
         <v>56</v>
       </c>
@@ -1907,7 +1908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C17" s="3">
         <v>52</v>
       </c>
@@ -1951,7 +1952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C18" s="3">
         <v>52</v>
       </c>
@@ -1995,7 +1996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C19" s="3">
         <v>51</v>
       </c>
@@ -2039,7 +2040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C20" s="3">
         <v>45</v>
       </c>
@@ -2083,7 +2084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C21" s="3">
         <v>42</v>
       </c>
@@ -2127,7 +2128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C22" s="3">
         <v>40</v>
       </c>
@@ -2171,7 +2172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C23" s="3">
         <v>38</v>
       </c>
@@ -2215,7 +2216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C24" s="3">
         <v>34</v>
       </c>
@@ -2259,7 +2260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C25" s="3">
         <v>74</v>
       </c>
@@ -2303,7 +2304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="26" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C26" s="3">
         <v>71</v>
       </c>
@@ -2347,7 +2348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C27" s="3">
         <v>70</v>
       </c>
@@ -2391,7 +2392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C28" s="3">
         <v>66</v>
       </c>
@@ -2435,7 +2436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="29" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C29" s="3">
         <v>63</v>
       </c>
@@ -2479,7 +2480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C30" s="3">
         <v>62</v>
       </c>
@@ -2523,7 +2524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="31" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C31" s="3">
         <v>62</v>
       </c>
@@ -2567,7 +2568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="32" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C32" s="3">
         <v>59</v>
       </c>
@@ -2611,7 +2612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C33" s="3">
         <v>58</v>
       </c>
@@ -2655,7 +2656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C34" s="3">
         <v>58</v>
       </c>
@@ -2699,7 +2700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C35" s="3">
         <v>57</v>
       </c>
@@ -2743,7 +2744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C36" s="3">
         <v>57</v>
       </c>
@@ -2787,7 +2788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C37" s="3">
         <v>57</v>
       </c>
@@ -2831,7 +2832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="38" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C38" s="3">
         <v>56</v>
       </c>
@@ -2875,7 +2876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="39" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C39" s="3">
         <v>56</v>
       </c>
@@ -2919,7 +2920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="40" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C40" s="3">
         <v>56</v>
       </c>
@@ -2963,7 +2964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="41" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C41" s="3">
         <v>56</v>
       </c>
@@ -3007,7 +3008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="42" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C42" s="3">
         <v>55</v>
       </c>
@@ -3051,7 +3052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="43" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C43" s="3">
         <v>55</v>
       </c>
@@ -3095,7 +3096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="44" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C44" s="3">
         <v>55</v>
       </c>
@@ -3139,7 +3140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="45" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C45" s="3">
         <v>54</v>
       </c>
@@ -3183,7 +3184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="46" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C46" s="3">
         <v>54</v>
       </c>
@@ -3227,7 +3228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C47" s="3">
         <v>54</v>
       </c>
@@ -3271,7 +3272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="48" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C48" s="3">
         <v>52</v>
       </c>
@@ -3315,7 +3316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C49" s="3">
         <v>52</v>
       </c>
@@ -3359,7 +3360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C50" s="3">
         <v>52</v>
       </c>
@@ -3403,7 +3404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="51" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C51" s="3">
         <v>50</v>
       </c>
@@ -3447,7 +3448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="52" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C52" s="3">
         <v>49</v>
       </c>
@@ -3491,7 +3492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C53" s="3">
         <v>49</v>
       </c>
@@ -3535,7 +3536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C54" s="3">
         <v>48</v>
       </c>
@@ -3579,7 +3580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C55" s="3">
         <v>48</v>
       </c>
@@ -3623,7 +3624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="56" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C56" s="3">
         <v>46</v>
       </c>
@@ -3667,7 +3668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="57" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C57" s="3">
         <v>46</v>
       </c>
@@ -3711,7 +3712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C58" s="3">
         <v>45</v>
       </c>
@@ -3755,7 +3756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C59" s="3">
         <v>45</v>
       </c>
@@ -3799,7 +3800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C60" s="3">
         <v>45</v>
       </c>
@@ -3843,7 +3844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C61" s="3">
         <v>44</v>
       </c>
@@ -3887,7 +3888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C62" s="3">
         <v>44</v>
       </c>
@@ -3931,7 +3932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C63" s="3">
         <v>44</v>
       </c>
@@ -3975,7 +3976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="64" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C64" s="3">
         <v>42</v>
       </c>
@@ -4019,7 +4020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="65" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C65" s="3">
         <v>41</v>
       </c>
@@ -4063,7 +4064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="66" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C66" s="3">
         <v>41</v>
       </c>
@@ -4107,7 +4108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="67" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C67" s="3">
         <v>41</v>
       </c>
@@ -4151,7 +4152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="68" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C68" s="3">
         <v>41</v>
       </c>
@@ -4195,7 +4196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="69" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C69" s="3">
         <v>41</v>
       </c>
@@ -4239,7 +4240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="70" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C70" s="3">
         <v>41</v>
       </c>
@@ -4283,7 +4284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="71" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C71" s="3">
         <v>35</v>
       </c>
@@ -4327,7 +4328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="72" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C72" s="3">
         <v>34</v>
       </c>
@@ -4371,7 +4372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="73" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C73" s="3">
         <v>29</v>
       </c>
@@ -4415,7 +4416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="74" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C74" s="3">
         <v>76</v>
       </c>
@@ -4459,7 +4460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="75" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C75" s="3">
         <v>71</v>
       </c>
@@ -4503,7 +4504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C76" s="3">
         <v>70</v>
       </c>
@@ -4547,7 +4548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C77" s="3">
         <v>69</v>
       </c>
@@ -4591,7 +4592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C78" s="3">
         <v>68</v>
       </c>
@@ -4635,7 +4636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="79" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C79" s="3">
         <v>68</v>
       </c>
@@ -4679,7 +4680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="80" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C80" s="3">
         <v>68</v>
       </c>
@@ -4723,7 +4724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C81" s="3">
         <v>67</v>
       </c>
@@ -4767,7 +4768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C82" s="3">
         <v>67</v>
       </c>
@@ -4811,7 +4812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="83" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C83" s="3">
         <v>67</v>
       </c>
@@ -4855,7 +4856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C84" s="3">
         <v>66</v>
       </c>
@@ -4899,7 +4900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="85" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C85" s="3">
         <v>65</v>
       </c>
@@ -4943,7 +4944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="86" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C86" s="3">
         <v>65</v>
       </c>
@@ -4987,7 +4988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="87" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C87" s="3">
         <v>65</v>
       </c>
@@ -5031,7 +5032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C88" s="3">
         <v>64</v>
       </c>
@@ -5075,7 +5076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C89" s="3">
         <v>64</v>
       </c>
@@ -5119,7 +5120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C90" s="3">
         <v>64</v>
       </c>
@@ -5163,7 +5164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="91" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C91" s="3">
         <v>63</v>
       </c>
@@ -5207,7 +5208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C92" s="3">
         <v>62</v>
       </c>
@@ -5251,7 +5252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C93" s="3">
         <v>62</v>
       </c>
@@ -5295,7 +5296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="94" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C94" s="3">
         <v>61</v>
       </c>
@@ -5339,7 +5340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C95" s="3">
         <v>60</v>
       </c>
@@ -5383,7 +5384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="96" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C96" s="3">
         <v>60</v>
       </c>
@@ -5427,7 +5428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C97" s="3">
         <v>60</v>
       </c>
@@ -5471,7 +5472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C98" s="3">
         <v>59</v>
       </c>
@@ -5515,7 +5516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="99" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C99" s="3">
         <v>59</v>
       </c>
@@ -5559,7 +5560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C100" s="3">
         <v>58</v>
       </c>
@@ -5603,7 +5604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C101" s="3">
         <v>58</v>
       </c>
@@ -5647,7 +5648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C102" s="3">
         <v>58</v>
       </c>
@@ -5691,7 +5692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="103" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C103" s="3">
         <v>58</v>
       </c>
@@ -5735,7 +5736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="104" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C104" s="3">
         <v>58</v>
       </c>
@@ -5779,7 +5780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C105" s="3">
         <v>57</v>
       </c>
@@ -5823,7 +5824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="106" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C106" s="3">
         <v>57</v>
       </c>
@@ -5867,7 +5868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="107" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C107" s="3">
         <v>57</v>
       </c>
@@ -5911,7 +5912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C108" s="3">
         <v>56</v>
       </c>
@@ -5955,7 +5956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="109" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C109" s="3">
         <v>54</v>
       </c>
@@ -5999,7 +6000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="110" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C110" s="3">
         <v>54</v>
       </c>
@@ -6043,7 +6044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="111" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C111" s="3">
         <v>54</v>
       </c>
@@ -6087,7 +6088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="112" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C112" s="3">
         <v>54</v>
       </c>
@@ -6131,7 +6132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="113" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C113" s="3">
         <v>54</v>
       </c>
@@ -6175,7 +6176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="114" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C114" s="3">
         <v>54</v>
       </c>
@@ -6219,7 +6220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="115" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C115" s="3">
         <v>54</v>
       </c>
@@ -6263,7 +6264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="116" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C116" s="3">
         <v>53</v>
       </c>
@@ -6307,7 +6308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="117" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C117" s="3">
         <v>53</v>
       </c>
@@ -6351,7 +6352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="118" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C118" s="3">
         <v>52</v>
       </c>
@@ -6395,7 +6396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="119" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C119" s="3">
         <v>52</v>
       </c>
@@ -6439,7 +6440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="120" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C120" s="3">
         <v>51</v>
       </c>
@@ -6483,7 +6484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="121" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C121" s="3">
         <v>51</v>
       </c>
@@ -6527,7 +6528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="122" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C122" s="3">
         <v>51</v>
       </c>
@@ -6571,7 +6572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="123" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C123" s="3">
         <v>51</v>
       </c>
@@ -6615,7 +6616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="124" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C124" s="3">
         <v>51</v>
       </c>
@@ -6659,7 +6660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="125" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C125" s="3">
         <v>51</v>
       </c>
@@ -6703,7 +6704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="126" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C126" s="3">
         <v>51</v>
       </c>
@@ -6747,7 +6748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="127" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C127" s="3">
         <v>50</v>
       </c>
@@ -6791,7 +6792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C128" s="3">
         <v>50</v>
       </c>
@@ -6835,7 +6836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="129" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C129" s="3">
         <v>50</v>
       </c>
@@ -6879,7 +6880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C130" s="3">
         <v>49</v>
       </c>
@@ -6923,7 +6924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C131" s="3">
         <v>49</v>
       </c>
@@ -6967,7 +6968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="132" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C132" s="3">
         <v>48</v>
       </c>
@@ -7011,7 +7012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="133" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C133" s="3">
         <v>48</v>
       </c>
@@ -7055,7 +7056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="134" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C134" s="3">
         <v>47</v>
       </c>
@@ -7099,7 +7100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C135" s="3">
         <v>47</v>
       </c>
@@ -7143,7 +7144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="136" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C136" s="3">
         <v>47</v>
       </c>
@@ -7187,7 +7188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="137" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C137" s="3">
         <v>46</v>
       </c>
@@ -7231,7 +7232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C138" s="3">
         <v>46</v>
       </c>
@@ -7275,7 +7276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="139" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C139" s="3">
         <v>44</v>
       </c>
@@ -7319,7 +7320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="140" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C140" s="3">
         <v>44</v>
       </c>
@@ -7363,7 +7364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="141" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C141" s="3">
         <v>44</v>
       </c>
@@ -7407,7 +7408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="142" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C142" s="3">
         <v>44</v>
       </c>
@@ -7451,7 +7452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="143" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C143" s="3">
         <v>44</v>
       </c>
@@ -7495,7 +7496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="144" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C144" s="3">
         <v>43</v>
       </c>
@@ -7539,7 +7540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="145" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C145" s="3">
         <v>43</v>
       </c>
@@ -7583,7 +7584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="146" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C146" s="3">
         <v>42</v>
       </c>
@@ -7627,7 +7628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="147" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C147" s="3">
         <v>42</v>
       </c>
@@ -7671,7 +7672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="148" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C148" s="3">
         <v>42</v>
       </c>
@@ -7715,7 +7716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="149" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C149" s="3">
         <v>41</v>
       </c>
@@ -7759,7 +7760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="150" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C150" s="3">
         <v>41</v>
       </c>
@@ -7803,7 +7804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="151" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C151" s="3">
         <v>41</v>
       </c>
@@ -7847,7 +7848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="152" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C152" s="3">
         <v>39</v>
       </c>
@@ -7891,7 +7892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="153" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C153" s="3">
         <v>39</v>
       </c>
@@ -7935,7 +7936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="154" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C154" s="3">
         <v>39</v>
       </c>
@@ -7979,7 +7980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="155" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C155" s="3">
         <v>37</v>
       </c>
@@ -8023,7 +8024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="156" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C156" s="3">
         <v>37</v>
       </c>
@@ -8067,7 +8068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C157" s="3">
         <v>77</v>
       </c>
@@ -8111,7 +8112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="158" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C158" s="3">
         <v>71</v>
       </c>
@@ -8155,7 +8156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C159" s="3">
         <v>70</v>
       </c>
@@ -8199,7 +8200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C160" s="3">
         <v>70</v>
       </c>
@@ -8243,7 +8244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C161" s="3">
         <v>68</v>
       </c>
@@ -8287,7 +8288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C162" s="3">
         <v>67</v>
       </c>
@@ -8331,7 +8332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C163" s="3">
         <v>67</v>
       </c>
@@ -8375,7 +8376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C164" s="3">
         <v>67</v>
       </c>
@@ -8419,7 +8420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C165" s="3">
         <v>67</v>
       </c>
@@ -8463,7 +8464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C166" s="3">
         <v>67</v>
       </c>
@@ -8507,7 +8508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="167" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C167" s="3">
         <v>67</v>
       </c>
@@ -8551,7 +8552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="168" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C168" s="3">
         <v>66</v>
       </c>
@@ -8595,7 +8596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C169" s="3">
         <v>66</v>
       </c>
@@ -8639,7 +8640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C170" s="3">
         <v>66</v>
       </c>
@@ -8683,7 +8684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="171" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C171" s="3">
         <v>66</v>
       </c>
@@ -8727,7 +8728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C172" s="3">
         <v>65</v>
       </c>
@@ -8771,7 +8772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C173" s="3">
         <v>65</v>
       </c>
@@ -8815,7 +8816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="174" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C174" s="3">
         <v>65</v>
       </c>
@@ -8859,7 +8860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C175" s="3">
         <v>65</v>
       </c>
@@ -8903,7 +8904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C176" s="3">
         <v>64</v>
       </c>
@@ -8947,7 +8948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C177" s="3">
         <v>64</v>
       </c>
@@ -8991,7 +8992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="178" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C178" s="3">
         <v>64</v>
       </c>
@@ -9035,7 +9036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="179" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C179" s="3">
         <v>64</v>
       </c>
@@ -9079,7 +9080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="180" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C180" s="3">
         <v>64</v>
       </c>
@@ -9123,7 +9124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C181" s="3">
         <v>63</v>
       </c>
@@ -9167,7 +9168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C182" s="3">
         <v>63</v>
       </c>
@@ -9211,7 +9212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C183" s="3">
         <v>63</v>
       </c>
@@ -9255,7 +9256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C184" s="3">
         <v>63</v>
       </c>
@@ -9299,7 +9300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C185" s="3">
         <v>63</v>
       </c>
@@ -9343,7 +9344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C186" s="3">
         <v>63</v>
       </c>
@@ -9387,7 +9388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C187" s="3">
         <v>62</v>
       </c>
@@ -9431,7 +9432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C188" s="3">
         <v>62</v>
       </c>
@@ -9475,7 +9476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C189" s="3">
         <v>62</v>
       </c>
@@ -9519,7 +9520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="190" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C190" s="3">
         <v>62</v>
       </c>
@@ -9563,7 +9564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C191" s="3">
         <v>62</v>
       </c>
@@ -9607,7 +9608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C192" s="3">
         <v>62</v>
       </c>
@@ -9651,7 +9652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="193" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C193" s="3">
         <v>62</v>
       </c>
@@ -9695,7 +9696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C194" s="3">
         <v>61</v>
       </c>
@@ -9739,7 +9740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C195" s="3">
         <v>61</v>
       </c>
@@ -9783,7 +9784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="196" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C196" s="3">
         <v>61</v>
       </c>
@@ -9827,7 +9828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C197" s="3">
         <v>61</v>
       </c>
@@ -9871,7 +9872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C198" s="3">
         <v>61</v>
       </c>
@@ -9915,7 +9916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C199" s="3">
         <v>61</v>
       </c>
@@ -9959,7 +9960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="200" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C200" s="3">
         <v>60</v>
       </c>
@@ -10003,7 +10004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="201" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C201" s="3">
         <v>60</v>
       </c>
@@ -10047,7 +10048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C202" s="3">
         <v>60</v>
       </c>
@@ -10091,7 +10092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C203" s="3">
         <v>60</v>
       </c>
@@ -10135,7 +10136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C204" s="3">
         <v>60</v>
       </c>
@@ -10179,7 +10180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C205" s="3">
         <v>60</v>
       </c>
@@ -10223,7 +10224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="206" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C206" s="3">
         <v>60</v>
       </c>
@@ -10267,7 +10268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="207" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C207" s="3">
         <v>60</v>
       </c>
@@ -10311,7 +10312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="208" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C208" s="3">
         <v>59</v>
       </c>
@@ -10355,7 +10356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="209" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C209" s="3">
         <v>59</v>
       </c>
@@ -10399,7 +10400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="210" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C210" s="3">
         <v>59</v>
       </c>
@@ -10443,7 +10444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C211" s="3">
         <v>59</v>
       </c>
@@ -10487,7 +10488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="212" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C212" s="3">
         <v>59</v>
       </c>
@@ -10531,7 +10532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C213" s="3">
         <v>59</v>
       </c>
@@ -10575,7 +10576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="214" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C214" s="3">
         <v>59</v>
       </c>
@@ -10619,7 +10620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C215" s="3">
         <v>58</v>
       </c>
@@ -10663,7 +10664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="216" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C216" s="3">
         <v>58</v>
       </c>
@@ -10707,7 +10708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="217" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C217" s="3">
         <v>58</v>
       </c>
@@ -10751,7 +10752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C218" s="3">
         <v>58</v>
       </c>
@@ -10795,7 +10796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C219" s="3">
         <v>58</v>
       </c>
@@ -10839,7 +10840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="220" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C220" s="3">
         <v>58</v>
       </c>
@@ -10883,7 +10884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="221" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C221" s="3">
         <v>58</v>
       </c>
@@ -10927,7 +10928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="222" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C222" s="3">
         <v>58</v>
       </c>
@@ -10971,7 +10972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="223" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C223" s="3">
         <v>58</v>
       </c>
@@ -11015,7 +11016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="224" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C224" s="3">
         <v>58</v>
       </c>
@@ -11059,7 +11060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="225" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C225" s="3">
         <v>57</v>
       </c>
@@ -11103,7 +11104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="226" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C226" s="3">
         <v>57</v>
       </c>
@@ -11147,7 +11148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="227" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C227" s="3">
         <v>57</v>
       </c>
@@ -11191,7 +11192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="228" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C228" s="3">
         <v>57</v>
       </c>
@@ -11235,7 +11236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="229" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C229" s="3">
         <v>57</v>
       </c>
@@ -11279,7 +11280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="230" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C230" s="3">
         <v>57</v>
       </c>
@@ -11323,7 +11324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="231" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C231" s="3">
         <v>57</v>
       </c>
@@ -11367,7 +11368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="232" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C232" s="3">
         <v>57</v>
       </c>
@@ -11411,7 +11412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="233" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C233" s="3">
         <v>57</v>
       </c>
@@ -11455,7 +11456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="234" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C234" s="3">
         <v>57</v>
       </c>
@@ -11499,7 +11500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="235" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C235" s="3">
         <v>57</v>
       </c>
@@ -11543,7 +11544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="236" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C236" s="3">
         <v>56</v>
       </c>
@@ -11587,7 +11588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="237" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C237" s="3">
         <v>56</v>
       </c>
@@ -11631,7 +11632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C238" s="3">
         <v>56</v>
       </c>
@@ -11675,7 +11676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="239" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C239" s="3">
         <v>56</v>
       </c>
@@ -11719,7 +11720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="240" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C240" s="3">
         <v>56</v>
       </c>
@@ -11763,7 +11764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="241" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C241" s="3">
         <v>55</v>
       </c>
@@ -11807,7 +11808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="242" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C242" s="3">
         <v>55</v>
       </c>
@@ -11851,7 +11852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="243" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C243" s="3">
         <v>55</v>
       </c>
@@ -11895,7 +11896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="244" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C244" s="3">
         <v>55</v>
       </c>
@@ -11939,7 +11940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="245" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C245" s="3">
         <v>55</v>
       </c>
@@ -11983,7 +11984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="246" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C246" s="3">
         <v>54</v>
       </c>
@@ -12027,7 +12028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="247" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C247" s="3">
         <v>54</v>
       </c>
@@ -12071,7 +12072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="248" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C248" s="3">
         <v>54</v>
       </c>
@@ -12115,7 +12116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="249" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C249" s="3">
         <v>54</v>
       </c>
@@ -12159,7 +12160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="250" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C250" s="3">
         <v>54</v>
       </c>
@@ -12203,7 +12204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="251" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C251" s="3">
         <v>54</v>
       </c>
@@ -12247,7 +12248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="252" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C252" s="3">
         <v>53</v>
       </c>
@@ -12291,7 +12292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="253" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C253" s="3">
         <v>53</v>
       </c>
@@ -12335,7 +12336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="254" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C254" s="3">
         <v>53</v>
       </c>
@@ -12379,7 +12380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="255" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C255" s="3">
         <v>53</v>
       </c>
@@ -12423,7 +12424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="256" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C256" s="3">
         <v>53</v>
       </c>
@@ -12467,7 +12468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="257" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C257" s="3">
         <v>52</v>
       </c>
@@ -12511,7 +12512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="258" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C258" s="3">
         <v>52</v>
       </c>
@@ -12555,7 +12556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="259" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C259" s="3">
         <v>52</v>
       </c>
@@ -12599,7 +12600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="260" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C260" s="3">
         <v>52</v>
       </c>
@@ -12643,7 +12644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="261" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C261" s="3">
         <v>51</v>
       </c>
@@ -12687,7 +12688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="262" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C262" s="3">
         <v>51</v>
       </c>
@@ -12731,7 +12732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="263" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C263" s="3">
         <v>51</v>
       </c>
@@ -12775,7 +12776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="264" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C264" s="3">
         <v>51</v>
       </c>
@@ -12819,7 +12820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="265" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C265" s="3">
         <v>50</v>
       </c>
@@ -12863,7 +12864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="266" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C266" s="3">
         <v>50</v>
       </c>
@@ -12907,7 +12908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="267" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C267" s="3">
         <v>50</v>
       </c>
@@ -12951,7 +12952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="268" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C268" s="3">
         <v>49</v>
       </c>
@@ -12995,7 +12996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="269" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C269" s="3">
         <v>48</v>
       </c>
@@ -13039,7 +13040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="270" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C270" s="3">
         <v>48</v>
       </c>
@@ -13083,7 +13084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="271" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C271" s="3">
         <v>48</v>
       </c>
@@ -13127,7 +13128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="272" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C272" s="3">
         <v>47</v>
       </c>
@@ -13171,7 +13172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="273" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C273" s="3">
         <v>47</v>
       </c>
@@ -13215,7 +13216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="274" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C274" s="3">
         <v>46</v>
       </c>
@@ -13259,7 +13260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="275" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C275" s="3">
         <v>46</v>
       </c>
@@ -13303,7 +13304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="276" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C276" s="3">
         <v>46</v>
       </c>
@@ -13347,7 +13348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="277" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C277" s="3">
         <v>45</v>
       </c>
@@ -13391,7 +13392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="278" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C278" s="3">
         <v>45</v>
       </c>
@@ -13435,7 +13436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="279" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C279" s="3">
         <v>45</v>
       </c>
@@ -13479,7 +13480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="280" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C280" s="3">
         <v>45</v>
       </c>
@@ -13523,7 +13524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="281" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C281" s="3">
         <v>44</v>
       </c>
@@ -13567,7 +13568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="282" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C282" s="3">
         <v>44</v>
       </c>
@@ -13611,7 +13612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="283" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C283" s="3">
         <v>44</v>
       </c>
@@ -13655,7 +13656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="284" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C284" s="3">
         <v>43</v>
       </c>
@@ -13699,7 +13700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="285" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C285" s="3">
         <v>43</v>
       </c>
@@ -13743,7 +13744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="286" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C286" s="3">
         <v>43</v>
       </c>
@@ -13787,7 +13788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="287" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C287" s="3">
         <v>43</v>
       </c>
@@ -13831,7 +13832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="288" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C288" s="3">
         <v>43</v>
       </c>
@@ -13875,7 +13876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="289" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C289" s="3">
         <v>42</v>
       </c>
@@ -13919,7 +13920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="290" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C290" s="3">
         <v>42</v>
       </c>
@@ -13963,7 +13964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="291" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C291" s="3">
         <v>42</v>
       </c>
@@ -14007,7 +14008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="292" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C292" s="3">
         <v>41</v>
       </c>
@@ -14051,7 +14052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="293" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C293" s="3">
         <v>40</v>
       </c>
@@ -14095,7 +14096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="294" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C294" s="3">
         <v>40</v>
       </c>
@@ -14139,7 +14140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="295" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C295" s="3">
         <v>39</v>
       </c>
@@ -14183,7 +14184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="296" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C296" s="3">
         <v>35</v>
       </c>
@@ -14227,7 +14228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="297" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C297" s="3">
         <v>35</v>
       </c>
@@ -14271,7 +14272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="3:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="298" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="C298" s="3">
         <v>35</v>
       </c>
@@ -14329,19 +14330,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{615EDDBE-34A1-471A-8986-1FE822B01926}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B1" sqref="B1:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="70.1328125" customWidth="1"/>
-    <col min="4" max="4" width="43.3984375" customWidth="1"/>
+    <col min="3" max="3" width="70.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>57</v>
       </c>
@@ -14352,7 +14356,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -14363,7 +14367,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -14374,7 +14378,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="2:4" s="2" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:4" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -14385,7 +14389,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -14396,7 +14400,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -14407,7 +14411,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="2:4" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:4" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -14418,7 +14422,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="2:4" s="2" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:4" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -14429,7 +14433,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -14440,7 +14444,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="2:4" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:4" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
@@ -14451,7 +14455,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="2:4" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:4" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
@@ -14462,7 +14466,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="2:4" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
@@ -14473,7 +14477,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="2:4" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:4" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
@@ -14484,7 +14488,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="2:4" s="2" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:4" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
@@ -14495,7 +14499,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="2:4" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:4" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
@@ -14506,23 +14510,24 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>56</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="83" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/heart_cleveland_upload.xlsx
+++ b/heart_cleveland_upload.xlsx
@@ -8,24 +8,38 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiosaudeorgbr-my.sharepoint.com/personal/luis_lobato_fiosaude_org_br/Documents/01. BACKUP/GITHUB - ESPECIALIZAÇÃO PUC/PUC_MVP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{E9687053-DCF4-4713-9494-5B1DC00449A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9C053FD-D692-4786-A287-0401DDFA6FBA}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{E9687053-DCF4-4713-9494-5B1DC00449A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3993696A-97C6-4197-9220-B9B7771C8C96}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{DD06B9D2-D3C4-4DF4-B60C-A70E8C5B224B}"/>
   </bookViews>
   <sheets>
     <sheet name="heart_cleveland_upload" sheetId="1" r:id="rId1"/>
     <sheet name="DESCRIÇÃO" sheetId="2" r:id="rId2"/>
+    <sheet name="descritiva" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">heart_cleveland_upload!$C$1:$P$298</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">DESCRIÇÃO!$B$1:$D$15</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="93">
   <si>
     <t>age</t>
   </si>
@@ -282,12 +296,51 @@
     <t xml:space="preserve">Glicemia em jejum &gt; 120 mg/dl
 </t>
   </si>
+  <si>
+    <t>DESCRITIVA</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>IQ</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>LI</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+  </numFmts>
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,8 +481,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -621,6 +688,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -797,7 +876,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -816,6 +895,26 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="36" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -873,6 +972,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14335,8 +14438,8 @@
   </sheetPr>
   <dimension ref="B1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D15"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14530,4 +14633,374 @@
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="83" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0ACAB2-F5BA-4B0F-AAF5-FC69D2149039}">
+  <dimension ref="B2:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="8" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="10">
+        <v>297</v>
+      </c>
+      <c r="D3" s="10">
+        <v>297</v>
+      </c>
+      <c r="E3" s="10">
+        <v>297</v>
+      </c>
+      <c r="F3" s="10">
+        <v>297</v>
+      </c>
+      <c r="G3" s="10">
+        <v>297</v>
+      </c>
+      <c r="H3" s="10">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="12">
+        <v>54.542087542087543</v>
+      </c>
+      <c r="D4" s="12">
+        <v>131.69360269360271</v>
+      </c>
+      <c r="E4" s="12">
+        <v>247.35016835016839</v>
+      </c>
+      <c r="F4" s="12">
+        <v>149.59932659932659</v>
+      </c>
+      <c r="G4" s="12">
+        <v>1.055555555555556</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0.6767676767676768</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="10">
+        <v>9.0497356810967631</v>
+      </c>
+      <c r="D5" s="10">
+        <v>17.762806366599001</v>
+      </c>
+      <c r="E5" s="10">
+        <v>51.997582535138967</v>
+      </c>
+      <c r="F5" s="10">
+        <v>22.941562061360809</v>
+      </c>
+      <c r="G5" s="10">
+        <v>1.166122781846896</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0.93896452630244864</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="10">
+        <v>29</v>
+      </c>
+      <c r="D6" s="10">
+        <v>94</v>
+      </c>
+      <c r="E6" s="10">
+        <v>126</v>
+      </c>
+      <c r="F6" s="10">
+        <v>71</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="10">
+        <v>48</v>
+      </c>
+      <c r="D7" s="10">
+        <v>120</v>
+      </c>
+      <c r="E7" s="10">
+        <v>211</v>
+      </c>
+      <c r="F7" s="10">
+        <v>133</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="12">
+        <v>56</v>
+      </c>
+      <c r="D8" s="12">
+        <v>130</v>
+      </c>
+      <c r="E8" s="12">
+        <v>243</v>
+      </c>
+      <c r="F8" s="12">
+        <v>153</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="10">
+        <v>61</v>
+      </c>
+      <c r="D9" s="10">
+        <v>140</v>
+      </c>
+      <c r="E9" s="10">
+        <v>276</v>
+      </c>
+      <c r="F9" s="10">
+        <v>166</v>
+      </c>
+      <c r="G9" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="H9" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="10">
+        <f>C9-C7</f>
+        <v>13</v>
+      </c>
+      <c r="D10" s="10">
+        <f t="shared" ref="D10:H10" si="0">D9-D7</f>
+        <v>20</v>
+      </c>
+      <c r="E10" s="10">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="F10" s="10">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="G10" s="10">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="H10" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="12">
+        <v>77</v>
+      </c>
+      <c r="D11" s="12">
+        <v>200</v>
+      </c>
+      <c r="E11" s="12">
+        <v>564</v>
+      </c>
+      <c r="F11" s="12">
+        <v>202</v>
+      </c>
+      <c r="G11" s="12">
+        <v>6.2</v>
+      </c>
+      <c r="H11" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="10">
+        <f t="shared" ref="C12:H12" si="1">C7-1.5*C10</f>
+        <v>28.5</v>
+      </c>
+      <c r="D12" s="10">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="E12" s="10">
+        <f t="shared" si="1"/>
+        <v>113.5</v>
+      </c>
+      <c r="F12" s="10">
+        <f t="shared" si="1"/>
+        <v>83.5</v>
+      </c>
+      <c r="G12" s="10">
+        <f t="shared" si="1"/>
+        <v>-2.4000000000000004</v>
+      </c>
+      <c r="H12" s="10">
+        <f t="shared" si="1"/>
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="10">
+        <f t="shared" ref="C13:H13" si="2">C9+1.5*C10</f>
+        <v>80.5</v>
+      </c>
+      <c r="D13" s="10">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+      <c r="E13" s="10">
+        <f t="shared" si="2"/>
+        <v>373.5</v>
+      </c>
+      <c r="F13" s="10">
+        <f t="shared" si="2"/>
+        <v>215.5</v>
+      </c>
+      <c r="G13" s="10">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H13" s="10">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="14" t="str">
+        <f>IF(C12&gt;=C6,"outliers","nao e outliers")</f>
+        <v>nao e outliers</v>
+      </c>
+      <c r="D15" s="14" t="str">
+        <f t="shared" ref="D15:H15" si="3">IF(D12&gt;=D6,"outliers","nao e outliers")</f>
+        <v>nao e outliers</v>
+      </c>
+      <c r="E15" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v>nao e outliers</v>
+      </c>
+      <c r="F15" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v>outliers</v>
+      </c>
+      <c r="G15" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v>nao e outliers</v>
+      </c>
+      <c r="H15" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v>nao e outliers</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="14" t="str">
+        <f>IF(C11&gt;=C13,"outliers","NÃO É OUTLIERS")</f>
+        <v>NÃO É OUTLIERS</v>
+      </c>
+      <c r="D16" s="14" t="str">
+        <f t="shared" ref="D16:H16" si="4">IF(D11&gt;=D13,"outliers","NÃO É OUTLIERS")</f>
+        <v>outliers</v>
+      </c>
+      <c r="E16" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>outliers</v>
+      </c>
+      <c r="F16" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>NÃO É OUTLIERS</v>
+      </c>
+      <c r="G16" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>outliers</v>
+      </c>
+      <c r="H16" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>outliers</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/heart_cleveland_upload.xlsx
+++ b/heart_cleveland_upload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiosaudeorgbr-my.sharepoint.com/personal/luis_lobato_fiosaude_org_br/Documents/01. BACKUP/GITHUB - ESPECIALIZAÇÃO PUC/PUC_MVP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis claudio\Dropbox\03. MEMORIA PROGRAMAS\12. GITHUB\PUC_MVP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{E9687053-DCF4-4713-9494-5B1DC00449A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3993696A-97C6-4197-9220-B9B7771C8C96}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDB7694-B67C-4A36-AD02-23CC87C4D33A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{DD06B9D2-D3C4-4DF4-B60C-A70E8C5B224B}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{DD06B9D2-D3C4-4DF4-B60C-A70E8C5B224B}"/>
   </bookViews>
   <sheets>
     <sheet name="heart_cleveland_upload" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="91">
   <si>
     <t>age</t>
   </si>
@@ -196,18 +196,9 @@
  2: apresentando hipertrofia ventricular esquerda provável ou definitiva pelos critérios de Estes</t>
   </si>
   <si>
-    <t>(1 = verdadeiro; 0 = falso) (&gt;126 mg/dll sinais de diabetes)</t>
-  </si>
-  <si>
     <t>0: ascendente
 1: plano
 2: descida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0: normal
-1: defeito corrigido
-2: defeito reversível
-</t>
   </si>
   <si>
     <t>https://www.kaggle.com/datasets/cherngs/heart-disease-cleveland-uci</t>
@@ -244,12 +235,6 @@
   </si>
   <si>
     <t>Tipo de dor toraxica</t>
-  </si>
-  <si>
-    <t>valores entre 130-140 é motivo de preocupação</t>
-  </si>
-  <si>
-    <t>acima de 200 é motivo de preocupação</t>
   </si>
   <si>
     <t>Resultados eletrocardiográficos em repouso</t>
@@ -331,6 +316,14 @@
   </si>
   <si>
     <t>LS</t>
+  </si>
+  <si>
+    <t>(1 = verdadeiro; 0 = falso)</t>
+  </si>
+  <si>
+    <t>0: normal
+1: defeito corrigido
+2: defeito reversível</t>
   </si>
 </sst>
 </file>
@@ -974,10 +967,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -1295,19 +1284,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FAE0F54-6A7B-452F-BF43-4122AECCB231}">
-  <sheetPr filterMode="1"/>
   <dimension ref="C1:P298"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="16" width="9.42578125" style="4" customWidth="1"/>
+    <col min="3" max="16" width="9.3984375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1351,7 +1339,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C2" s="3">
         <v>69</v>
       </c>
@@ -1395,7 +1383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C3" s="3">
         <v>69</v>
       </c>
@@ -1439,7 +1427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C4" s="3">
         <v>66</v>
       </c>
@@ -1483,7 +1471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C5" s="3">
         <v>65</v>
       </c>
@@ -1527,7 +1515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C6" s="3">
         <v>64</v>
       </c>
@@ -1571,7 +1559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C7" s="3">
         <v>64</v>
       </c>
@@ -1615,7 +1603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C8" s="3">
         <v>63</v>
       </c>
@@ -1659,7 +1647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C9" s="3">
         <v>61</v>
       </c>
@@ -1703,7 +1691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C10" s="3">
         <v>60</v>
       </c>
@@ -1747,7 +1735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C11" s="3">
         <v>59</v>
       </c>
@@ -1791,7 +1779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C12" s="3">
         <v>59</v>
       </c>
@@ -1835,7 +1823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C13" s="3">
         <v>59</v>
       </c>
@@ -1879,7 +1867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C14" s="3">
         <v>59</v>
       </c>
@@ -1923,7 +1911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C15" s="3">
         <v>58</v>
       </c>
@@ -1967,7 +1955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C16" s="3">
         <v>56</v>
       </c>
@@ -2011,7 +1999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C17" s="3">
         <v>52</v>
       </c>
@@ -2055,7 +2043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C18" s="3">
         <v>52</v>
       </c>
@@ -2099,7 +2087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C19" s="3">
         <v>51</v>
       </c>
@@ -2143,7 +2131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C20" s="3">
         <v>45</v>
       </c>
@@ -2187,7 +2175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C21" s="3">
         <v>42</v>
       </c>
@@ -2231,7 +2219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C22" s="3">
         <v>40</v>
       </c>
@@ -2275,7 +2263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C23" s="3">
         <v>38</v>
       </c>
@@ -2319,7 +2307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C24" s="3">
         <v>34</v>
       </c>
@@ -2363,7 +2351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C25" s="3">
         <v>74</v>
       </c>
@@ -2407,7 +2395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C26" s="3">
         <v>71</v>
       </c>
@@ -2451,7 +2439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C27" s="3">
         <v>70</v>
       </c>
@@ -2495,7 +2483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C28" s="3">
         <v>66</v>
       </c>
@@ -2539,7 +2527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C29" s="3">
         <v>63</v>
       </c>
@@ -2583,7 +2571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C30" s="3">
         <v>62</v>
       </c>
@@ -2627,7 +2615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C31" s="3">
         <v>62</v>
       </c>
@@ -2671,7 +2659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C32" s="3">
         <v>59</v>
       </c>
@@ -2715,7 +2703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C33" s="3">
         <v>58</v>
       </c>
@@ -2759,7 +2747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C34" s="3">
         <v>58</v>
       </c>
@@ -2803,7 +2791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C35" s="3">
         <v>57</v>
       </c>
@@ -2847,7 +2835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C36" s="3">
         <v>57</v>
       </c>
@@ -2891,7 +2879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C37" s="3">
         <v>57</v>
       </c>
@@ -2935,7 +2923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C38" s="3">
         <v>56</v>
       </c>
@@ -2979,7 +2967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C39" s="3">
         <v>56</v>
       </c>
@@ -3023,7 +3011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C40" s="3">
         <v>56</v>
       </c>
@@ -3067,7 +3055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C41" s="3">
         <v>56</v>
       </c>
@@ -3111,7 +3099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C42" s="3">
         <v>55</v>
       </c>
@@ -3155,7 +3143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C43" s="3">
         <v>55</v>
       </c>
@@ -3199,7 +3187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C44" s="3">
         <v>55</v>
       </c>
@@ -3243,7 +3231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C45" s="3">
         <v>54</v>
       </c>
@@ -3287,7 +3275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C46" s="3">
         <v>54</v>
       </c>
@@ -3331,7 +3319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C47" s="3">
         <v>54</v>
       </c>
@@ -3375,7 +3363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C48" s="3">
         <v>52</v>
       </c>
@@ -3419,7 +3407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C49" s="3">
         <v>52</v>
       </c>
@@ -3463,7 +3451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C50" s="3">
         <v>52</v>
       </c>
@@ -3507,7 +3495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C51" s="3">
         <v>50</v>
       </c>
@@ -3551,7 +3539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C52" s="3">
         <v>49</v>
       </c>
@@ -3595,7 +3583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C53" s="3">
         <v>49</v>
       </c>
@@ -3639,7 +3627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C54" s="3">
         <v>48</v>
       </c>
@@ -3683,7 +3671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C55" s="3">
         <v>48</v>
       </c>
@@ -3727,7 +3715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C56" s="3">
         <v>46</v>
       </c>
@@ -3771,7 +3759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C57" s="3">
         <v>46</v>
       </c>
@@ -3815,7 +3803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C58" s="3">
         <v>45</v>
       </c>
@@ -3859,7 +3847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C59" s="3">
         <v>45</v>
       </c>
@@ -3903,7 +3891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C60" s="3">
         <v>45</v>
       </c>
@@ -3947,7 +3935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C61" s="3">
         <v>44</v>
       </c>
@@ -3991,7 +3979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C62" s="3">
         <v>44</v>
       </c>
@@ -4035,7 +4023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C63" s="3">
         <v>44</v>
       </c>
@@ -4079,7 +4067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C64" s="3">
         <v>42</v>
       </c>
@@ -4123,7 +4111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C65" s="3">
         <v>41</v>
       </c>
@@ -4167,7 +4155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C66" s="3">
         <v>41</v>
       </c>
@@ -4211,7 +4199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C67" s="3">
         <v>41</v>
       </c>
@@ -4255,7 +4243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C68" s="3">
         <v>41</v>
       </c>
@@ -4299,7 +4287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C69" s="3">
         <v>41</v>
       </c>
@@ -4343,7 +4331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C70" s="3">
         <v>41</v>
       </c>
@@ -4387,7 +4375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C71" s="3">
         <v>35</v>
       </c>
@@ -4431,7 +4419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C72" s="3">
         <v>34</v>
       </c>
@@ -4475,7 +4463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C73" s="3">
         <v>29</v>
       </c>
@@ -4519,7 +4507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C74" s="3">
         <v>76</v>
       </c>
@@ -4563,7 +4551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C75" s="3">
         <v>71</v>
       </c>
@@ -4607,7 +4595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C76" s="3">
         <v>70</v>
       </c>
@@ -4651,7 +4639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C77" s="3">
         <v>69</v>
       </c>
@@ -4695,7 +4683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C78" s="3">
         <v>68</v>
       </c>
@@ -4739,7 +4727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C79" s="3">
         <v>68</v>
       </c>
@@ -4783,7 +4771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C80" s="3">
         <v>68</v>
       </c>
@@ -4827,7 +4815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C81" s="3">
         <v>67</v>
       </c>
@@ -4871,7 +4859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C82" s="3">
         <v>67</v>
       </c>
@@ -4915,7 +4903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C83" s="3">
         <v>67</v>
       </c>
@@ -4959,7 +4947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C84" s="3">
         <v>66</v>
       </c>
@@ -5003,7 +4991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C85" s="3">
         <v>65</v>
       </c>
@@ -5047,7 +5035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C86" s="3">
         <v>65</v>
       </c>
@@ -5091,7 +5079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C87" s="3">
         <v>65</v>
       </c>
@@ -5135,7 +5123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C88" s="3">
         <v>64</v>
       </c>
@@ -5179,7 +5167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C89" s="3">
         <v>64</v>
       </c>
@@ -5223,7 +5211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C90" s="3">
         <v>64</v>
       </c>
@@ -5267,7 +5255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C91" s="3">
         <v>63</v>
       </c>
@@ -5311,7 +5299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C92" s="3">
         <v>62</v>
       </c>
@@ -5355,7 +5343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C93" s="3">
         <v>62</v>
       </c>
@@ -5399,7 +5387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C94" s="3">
         <v>61</v>
       </c>
@@ -5443,7 +5431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C95" s="3">
         <v>60</v>
       </c>
@@ -5487,7 +5475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C96" s="3">
         <v>60</v>
       </c>
@@ -5531,7 +5519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C97" s="3">
         <v>60</v>
       </c>
@@ -5575,7 +5563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C98" s="3">
         <v>59</v>
       </c>
@@ -5619,7 +5607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C99" s="3">
         <v>59</v>
       </c>
@@ -5663,7 +5651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C100" s="3">
         <v>58</v>
       </c>
@@ -5707,7 +5695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C101" s="3">
         <v>58</v>
       </c>
@@ -5751,7 +5739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C102" s="3">
         <v>58</v>
       </c>
@@ -5795,7 +5783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C103" s="3">
         <v>58</v>
       </c>
@@ -5839,7 +5827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C104" s="3">
         <v>58</v>
       </c>
@@ -5883,7 +5871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C105" s="3">
         <v>57</v>
       </c>
@@ -5927,7 +5915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C106" s="3">
         <v>57</v>
       </c>
@@ -5971,7 +5959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C107" s="3">
         <v>57</v>
       </c>
@@ -6015,7 +6003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C108" s="3">
         <v>56</v>
       </c>
@@ -6059,7 +6047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C109" s="3">
         <v>54</v>
       </c>
@@ -6103,7 +6091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C110" s="3">
         <v>54</v>
       </c>
@@ -6147,7 +6135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C111" s="3">
         <v>54</v>
       </c>
@@ -6191,7 +6179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C112" s="3">
         <v>54</v>
       </c>
@@ -6235,7 +6223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C113" s="3">
         <v>54</v>
       </c>
@@ -6279,7 +6267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C114" s="3">
         <v>54</v>
       </c>
@@ -6323,7 +6311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C115" s="3">
         <v>54</v>
       </c>
@@ -6367,7 +6355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C116" s="3">
         <v>53</v>
       </c>
@@ -6411,7 +6399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C117" s="3">
         <v>53</v>
       </c>
@@ -6455,7 +6443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C118" s="3">
         <v>52</v>
       </c>
@@ -6499,7 +6487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C119" s="3">
         <v>52</v>
       </c>
@@ -6543,7 +6531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C120" s="3">
         <v>51</v>
       </c>
@@ -6587,7 +6575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C121" s="3">
         <v>51</v>
       </c>
@@ -6631,7 +6619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C122" s="3">
         <v>51</v>
       </c>
@@ -6675,7 +6663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C123" s="3">
         <v>51</v>
       </c>
@@ -6719,7 +6707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C124" s="3">
         <v>51</v>
       </c>
@@ -6763,7 +6751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C125" s="3">
         <v>51</v>
       </c>
@@ -6807,7 +6795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C126" s="3">
         <v>51</v>
       </c>
@@ -6851,7 +6839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C127" s="3">
         <v>50</v>
       </c>
@@ -6895,7 +6883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C128" s="3">
         <v>50</v>
       </c>
@@ -6939,7 +6927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C129" s="3">
         <v>50</v>
       </c>
@@ -6983,7 +6971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C130" s="3">
         <v>49</v>
       </c>
@@ -7027,7 +7015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C131" s="3">
         <v>49</v>
       </c>
@@ -7071,7 +7059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C132" s="3">
         <v>48</v>
       </c>
@@ -7115,7 +7103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C133" s="3">
         <v>48</v>
       </c>
@@ -7159,7 +7147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C134" s="3">
         <v>47</v>
       </c>
@@ -7203,7 +7191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C135" s="3">
         <v>47</v>
       </c>
@@ -7247,7 +7235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C136" s="3">
         <v>47</v>
       </c>
@@ -7291,7 +7279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C137" s="3">
         <v>46</v>
       </c>
@@ -7335,7 +7323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C138" s="3">
         <v>46</v>
       </c>
@@ -7379,7 +7367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C139" s="3">
         <v>44</v>
       </c>
@@ -7423,7 +7411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C140" s="3">
         <v>44</v>
       </c>
@@ -7467,7 +7455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C141" s="3">
         <v>44</v>
       </c>
@@ -7511,7 +7499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C142" s="3">
         <v>44</v>
       </c>
@@ -7555,7 +7543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C143" s="3">
         <v>44</v>
       </c>
@@ -7599,7 +7587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C144" s="3">
         <v>43</v>
       </c>
@@ -7643,7 +7631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C145" s="3">
         <v>43</v>
       </c>
@@ -7687,7 +7675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C146" s="3">
         <v>42</v>
       </c>
@@ -7731,7 +7719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C147" s="3">
         <v>42</v>
       </c>
@@ -7775,7 +7763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C148" s="3">
         <v>42</v>
       </c>
@@ -7819,7 +7807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C149" s="3">
         <v>41</v>
       </c>
@@ -7863,7 +7851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C150" s="3">
         <v>41</v>
       </c>
@@ -7907,7 +7895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C151" s="3">
         <v>41</v>
       </c>
@@ -7951,7 +7939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C152" s="3">
         <v>39</v>
       </c>
@@ -7995,7 +7983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C153" s="3">
         <v>39</v>
       </c>
@@ -8039,7 +8027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C154" s="3">
         <v>39</v>
       </c>
@@ -8083,7 +8071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C155" s="3">
         <v>37</v>
       </c>
@@ -8127,7 +8115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C156" s="3">
         <v>37</v>
       </c>
@@ -8171,7 +8159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C157" s="3">
         <v>77</v>
       </c>
@@ -8215,7 +8203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C158" s="3">
         <v>71</v>
       </c>
@@ -8259,7 +8247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C159" s="3">
         <v>70</v>
       </c>
@@ -8303,7 +8291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C160" s="3">
         <v>70</v>
       </c>
@@ -8347,7 +8335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C161" s="3">
         <v>68</v>
       </c>
@@ -8391,7 +8379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C162" s="3">
         <v>67</v>
       </c>
@@ -8435,7 +8423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C163" s="3">
         <v>67</v>
       </c>
@@ -8479,7 +8467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C164" s="3">
         <v>67</v>
       </c>
@@ -8523,7 +8511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C165" s="3">
         <v>67</v>
       </c>
@@ -8567,7 +8555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C166" s="3">
         <v>67</v>
       </c>
@@ -8611,7 +8599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C167" s="3">
         <v>67</v>
       </c>
@@ -8655,7 +8643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C168" s="3">
         <v>66</v>
       </c>
@@ -8699,7 +8687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C169" s="3">
         <v>66</v>
       </c>
@@ -8743,7 +8731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C170" s="3">
         <v>66</v>
       </c>
@@ -8787,7 +8775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C171" s="3">
         <v>66</v>
       </c>
@@ -8831,7 +8819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C172" s="3">
         <v>65</v>
       </c>
@@ -8875,7 +8863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C173" s="3">
         <v>65</v>
       </c>
@@ -8919,7 +8907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C174" s="3">
         <v>65</v>
       </c>
@@ -8963,7 +8951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C175" s="3">
         <v>65</v>
       </c>
@@ -9007,7 +8995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C176" s="3">
         <v>64</v>
       </c>
@@ -9051,7 +9039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C177" s="3">
         <v>64</v>
       </c>
@@ -9095,7 +9083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C178" s="3">
         <v>64</v>
       </c>
@@ -9139,7 +9127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C179" s="3">
         <v>64</v>
       </c>
@@ -9183,7 +9171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C180" s="3">
         <v>64</v>
       </c>
@@ -9227,7 +9215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C181" s="3">
         <v>63</v>
       </c>
@@ -9271,7 +9259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C182" s="3">
         <v>63</v>
       </c>
@@ -9315,7 +9303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C183" s="3">
         <v>63</v>
       </c>
@@ -9359,7 +9347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C184" s="3">
         <v>63</v>
       </c>
@@ -9403,7 +9391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C185" s="3">
         <v>63</v>
       </c>
@@ -9447,7 +9435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C186" s="3">
         <v>63</v>
       </c>
@@ -9491,7 +9479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C187" s="3">
         <v>62</v>
       </c>
@@ -9535,7 +9523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C188" s="3">
         <v>62</v>
       </c>
@@ -9579,7 +9567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C189" s="3">
         <v>62</v>
       </c>
@@ -9623,7 +9611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C190" s="3">
         <v>62</v>
       </c>
@@ -9667,7 +9655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C191" s="3">
         <v>62</v>
       </c>
@@ -9711,7 +9699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C192" s="3">
         <v>62</v>
       </c>
@@ -9755,7 +9743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C193" s="3">
         <v>62</v>
       </c>
@@ -9799,7 +9787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C194" s="3">
         <v>61</v>
       </c>
@@ -9843,7 +9831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C195" s="3">
         <v>61</v>
       </c>
@@ -9887,7 +9875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C196" s="3">
         <v>61</v>
       </c>
@@ -9931,7 +9919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C197" s="3">
         <v>61</v>
       </c>
@@ -9975,7 +9963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C198" s="3">
         <v>61</v>
       </c>
@@ -10019,7 +10007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C199" s="3">
         <v>61</v>
       </c>
@@ -10063,7 +10051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C200" s="3">
         <v>60</v>
       </c>
@@ -10107,7 +10095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C201" s="3">
         <v>60</v>
       </c>
@@ -10151,7 +10139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C202" s="3">
         <v>60</v>
       </c>
@@ -10195,7 +10183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C203" s="3">
         <v>60</v>
       </c>
@@ -10239,7 +10227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C204" s="3">
         <v>60</v>
       </c>
@@ -10283,7 +10271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C205" s="3">
         <v>60</v>
       </c>
@@ -10327,7 +10315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C206" s="3">
         <v>60</v>
       </c>
@@ -10371,7 +10359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C207" s="3">
         <v>60</v>
       </c>
@@ -10415,7 +10403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C208" s="3">
         <v>59</v>
       </c>
@@ -10459,7 +10447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C209" s="3">
         <v>59</v>
       </c>
@@ -10503,7 +10491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C210" s="3">
         <v>59</v>
       </c>
@@ -10547,7 +10535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C211" s="3">
         <v>59</v>
       </c>
@@ -10591,7 +10579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C212" s="3">
         <v>59</v>
       </c>
@@ -10635,7 +10623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C213" s="3">
         <v>59</v>
       </c>
@@ -10679,7 +10667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C214" s="3">
         <v>59</v>
       </c>
@@ -10723,7 +10711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C215" s="3">
         <v>58</v>
       </c>
@@ -10767,7 +10755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C216" s="3">
         <v>58</v>
       </c>
@@ -10811,7 +10799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C217" s="3">
         <v>58</v>
       </c>
@@ -10855,7 +10843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C218" s="3">
         <v>58</v>
       </c>
@@ -10899,7 +10887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C219" s="3">
         <v>58</v>
       </c>
@@ -10943,7 +10931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C220" s="3">
         <v>58</v>
       </c>
@@ -10987,7 +10975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C221" s="3">
         <v>58</v>
       </c>
@@ -11031,7 +11019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C222" s="3">
         <v>58</v>
       </c>
@@ -11075,7 +11063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C223" s="3">
         <v>58</v>
       </c>
@@ -11119,7 +11107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C224" s="3">
         <v>58</v>
       </c>
@@ -11163,7 +11151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C225" s="3">
         <v>57</v>
       </c>
@@ -11207,7 +11195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C226" s="3">
         <v>57</v>
       </c>
@@ -11251,7 +11239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C227" s="3">
         <v>57</v>
       </c>
@@ -11295,7 +11283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C228" s="3">
         <v>57</v>
       </c>
@@ -11339,7 +11327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C229" s="3">
         <v>57</v>
       </c>
@@ -11383,7 +11371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C230" s="3">
         <v>57</v>
       </c>
@@ -11427,7 +11415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C231" s="3">
         <v>57</v>
       </c>
@@ -11471,7 +11459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C232" s="3">
         <v>57</v>
       </c>
@@ -11515,7 +11503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C233" s="3">
         <v>57</v>
       </c>
@@ -11559,7 +11547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C234" s="3">
         <v>57</v>
       </c>
@@ -11603,7 +11591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C235" s="3">
         <v>57</v>
       </c>
@@ -11647,7 +11635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C236" s="3">
         <v>56</v>
       </c>
@@ -11691,7 +11679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C237" s="3">
         <v>56</v>
       </c>
@@ -11735,7 +11723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C238" s="3">
         <v>56</v>
       </c>
@@ -11779,7 +11767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C239" s="3">
         <v>56</v>
       </c>
@@ -11823,7 +11811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C240" s="3">
         <v>56</v>
       </c>
@@ -11867,7 +11855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C241" s="3">
         <v>55</v>
       </c>
@@ -11911,7 +11899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C242" s="3">
         <v>55</v>
       </c>
@@ -11955,7 +11943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C243" s="3">
         <v>55</v>
       </c>
@@ -11999,7 +11987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C244" s="3">
         <v>55</v>
       </c>
@@ -12043,7 +12031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C245" s="3">
         <v>55</v>
       </c>
@@ -12087,7 +12075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C246" s="3">
         <v>54</v>
       </c>
@@ -12131,7 +12119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C247" s="3">
         <v>54</v>
       </c>
@@ -12175,7 +12163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C248" s="3">
         <v>54</v>
       </c>
@@ -12219,7 +12207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C249" s="3">
         <v>54</v>
       </c>
@@ -12263,7 +12251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C250" s="3">
         <v>54</v>
       </c>
@@ -12307,7 +12295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C251" s="3">
         <v>54</v>
       </c>
@@ -12351,7 +12339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C252" s="3">
         <v>53</v>
       </c>
@@ -12395,7 +12383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C253" s="3">
         <v>53</v>
       </c>
@@ -12439,7 +12427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C254" s="3">
         <v>53</v>
       </c>
@@ -12483,7 +12471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C255" s="3">
         <v>53</v>
       </c>
@@ -12527,7 +12515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C256" s="3">
         <v>53</v>
       </c>
@@ -12571,7 +12559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C257" s="3">
         <v>52</v>
       </c>
@@ -12615,7 +12603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C258" s="3">
         <v>52</v>
       </c>
@@ -12659,7 +12647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C259" s="3">
         <v>52</v>
       </c>
@@ -12703,7 +12691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C260" s="3">
         <v>52</v>
       </c>
@@ -12747,7 +12735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C261" s="3">
         <v>51</v>
       </c>
@@ -12791,7 +12779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C262" s="3">
         <v>51</v>
       </c>
@@ -12835,7 +12823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C263" s="3">
         <v>51</v>
       </c>
@@ -12879,7 +12867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C264" s="3">
         <v>51</v>
       </c>
@@ -12923,7 +12911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C265" s="3">
         <v>50</v>
       </c>
@@ -12967,7 +12955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C266" s="3">
         <v>50</v>
       </c>
@@ -13011,7 +12999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C267" s="3">
         <v>50</v>
       </c>
@@ -13055,7 +13043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C268" s="3">
         <v>49</v>
       </c>
@@ -13099,7 +13087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C269" s="3">
         <v>48</v>
       </c>
@@ -13143,7 +13131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C270" s="3">
         <v>48</v>
       </c>
@@ -13187,7 +13175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C271" s="3">
         <v>48</v>
       </c>
@@ -13231,7 +13219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C272" s="3">
         <v>47</v>
       </c>
@@ -13275,7 +13263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C273" s="3">
         <v>47</v>
       </c>
@@ -13319,7 +13307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C274" s="3">
         <v>46</v>
       </c>
@@ -13363,7 +13351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C275" s="3">
         <v>46</v>
       </c>
@@ -13407,7 +13395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C276" s="3">
         <v>46</v>
       </c>
@@ -13451,7 +13439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C277" s="3">
         <v>45</v>
       </c>
@@ -13495,7 +13483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C278" s="3">
         <v>45</v>
       </c>
@@ -13539,7 +13527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C279" s="3">
         <v>45</v>
       </c>
@@ -13583,7 +13571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C280" s="3">
         <v>45</v>
       </c>
@@ -13627,7 +13615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C281" s="3">
         <v>44</v>
       </c>
@@ -13671,7 +13659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C282" s="3">
         <v>44</v>
       </c>
@@ -13715,7 +13703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C283" s="3">
         <v>44</v>
       </c>
@@ -13759,7 +13747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C284" s="3">
         <v>43</v>
       </c>
@@ -13803,7 +13791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C285" s="3">
         <v>43</v>
       </c>
@@ -13847,7 +13835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C286" s="3">
         <v>43</v>
       </c>
@@ -13891,7 +13879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C287" s="3">
         <v>43</v>
       </c>
@@ -13935,7 +13923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C288" s="3">
         <v>43</v>
       </c>
@@ -13979,7 +13967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C289" s="3">
         <v>42</v>
       </c>
@@ -14023,7 +14011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C290" s="3">
         <v>42</v>
       </c>
@@ -14067,7 +14055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C291" s="3">
         <v>42</v>
       </c>
@@ -14111,7 +14099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C292" s="3">
         <v>41</v>
       </c>
@@ -14155,7 +14143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C293" s="3">
         <v>40</v>
       </c>
@@ -14199,7 +14187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C294" s="3">
         <v>40</v>
       </c>
@@ -14243,7 +14231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C295" s="3">
         <v>39</v>
       </c>
@@ -14287,7 +14275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C296" s="3">
         <v>35</v>
       </c>
@@ -14331,7 +14319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C297" s="3">
         <v>35</v>
       </c>
@@ -14375,7 +14363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="3:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C298" s="3">
         <v>35</v>
       </c>
@@ -14420,13 +14408,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:P298" xr:uid="{4FAE0F54-6A7B-452F-BF43-4122AECCB231}">
-    <filterColumn colId="13">
-      <filters>
-        <filter val="0"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="C1:P298" xr:uid="{4FAE0F54-6A7B-452F-BF43-4122AECCB231}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -14438,194 +14420,194 @@
   </sheetPr>
   <dimension ref="B1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="70.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" customWidth="1"/>
+    <col min="3" max="3" width="70.1328125" customWidth="1"/>
+    <col min="4" max="4" width="43.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="6" t="s">
+    </row>
+    <row r="2" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="2:4" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" s="2" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" s="2" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -14640,17 +14622,17 @@
   <dimension ref="B2:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="8" width="15.28515625" customWidth="1"/>
+    <col min="2" max="8" width="15.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B2" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>0</v>
@@ -14671,9 +14653,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B3" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C3" s="10">
         <v>297</v>
@@ -14694,9 +14676,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B4" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C4" s="12">
         <v>54.542087542087543</v>
@@ -14717,9 +14699,9 @@
         <v>0.6767676767676768</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B5" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C5" s="10">
         <v>9.0497356810967631</v>
@@ -14740,9 +14722,9 @@
         <v>0.93896452630244864</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B6" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C6" s="10">
         <v>29</v>
@@ -14763,9 +14745,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B7" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C7" s="10">
         <v>48</v>
@@ -14786,9 +14768,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B8" s="11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C8" s="12">
         <v>56</v>
@@ -14809,9 +14791,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B9" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C9" s="10">
         <v>61</v>
@@ -14832,9 +14814,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B10" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C10" s="10">
         <f>C9-C7</f>
@@ -14861,9 +14843,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B11" s="11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C11" s="12">
         <v>77</v>
@@ -14884,9 +14866,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B12" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C12" s="10">
         <f t="shared" ref="C12:H12" si="1">C7-1.5*C10</f>
@@ -14913,9 +14895,9 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B13" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C13" s="10">
         <f t="shared" ref="C13:H13" si="2">C9+1.5*C10</f>
@@ -14942,9 +14924,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B15" s="13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C15" s="14" t="str">
         <f>IF(C12&gt;=C6,"outliers","nao e outliers")</f>
@@ -14971,9 +14953,9 @@
         <v>nao e outliers</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B16" s="13" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C16" s="14" t="str">
         <f>IF(C11&gt;=C13,"outliers","NÃO É OUTLIERS")</f>
